--- a/config/forms/app/load.xlsx
+++ b/config/forms/app/load.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -60,6 +60,15 @@
     <t>source_id</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden </t>
+  </si>
+  <si>
+    <t>my_field_load</t>
+  </si>
+  <si>
+    <t>load_field_date</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
@@ -117,22 +126,19 @@
     <t>load</t>
   </si>
   <si>
-    <t>select_one load</t>
+    <t>note</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>Lab test:</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>Lab test: ${my_field_load}</t>
   </si>
   <si>
     <t>date1</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Appointment: </t>
+    <t>Date of Appointment: ${load_field_date}</t>
   </si>
   <si>
     <t>select_one load1</t>
@@ -154,6 +160,9 @@
     <t>Viral Load result:</t>
   </si>
   <si>
+    <t>${result} = 'yes'</t>
+  </si>
+  <si>
     <t>select_one load3</t>
   </si>
   <si>
@@ -164,33 +173,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">${result2} = 'unstable' or ${result2} = 'stable' or ${result2} = 'inconclusive' </t>
+  </si>
+  <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>load</t>
-    </r>
-  </si>
-  <si>
-    <t>viral</t>
-  </si>
-  <si>
-    <t>Viral Load</t>
   </si>
   <si>
     <t>load1</t>
@@ -387,6 +373,9 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -404,9 +393,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -649,6 +635,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.38"/>
     <col customWidth="1" min="3" max="3" width="86.0"/>
+    <col customWidth="1" min="4" max="4" width="54.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -722,11 +709,11 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -734,61 +721,97 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -801,10 +824,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -816,88 +839,100 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
+      <c r="A17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -906,121 +941,147 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
+      <c r="A18" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="B23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+    <row r="25">
+      <c r="A25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="11" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>26</v>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1104,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1054,101 +1115,90 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
+      <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>59</v>
+      <c r="A5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>64</v>
+      <c r="A7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>66</v>
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>71</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1171,25 +1221,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -1197,21 +1247,21 @@
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="16" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-07-13_22-40</v>
+        <v>2022-07-26_12-07</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
